--- a/Code/Results/Cases/Case_5_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_174/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.2965118700656</v>
+        <v>11.78343898000433</v>
       </c>
       <c r="C2">
-        <v>13.01488297970915</v>
+        <v>8.320682808848231</v>
       </c>
       <c r="D2">
-        <v>3.635523872242186</v>
+        <v>3.944530293171242</v>
       </c>
       <c r="E2">
-        <v>12.16268669120991</v>
+        <v>11.80144205942174</v>
       </c>
       <c r="F2">
-        <v>19.41672645455182</v>
+        <v>21.68843984460198</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.47018742999546</v>
+        <v>14.2283810455674</v>
       </c>
       <c r="N2">
-        <v>10.98846938216703</v>
+        <v>16.55318618368922</v>
       </c>
       <c r="O2">
-        <v>14.84513713517427</v>
+        <v>19.17549271906794</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.03525142303743</v>
+        <v>11.22455376164821</v>
       </c>
       <c r="C3">
-        <v>12.28693256410594</v>
+        <v>7.952968402872831</v>
       </c>
       <c r="D3">
-        <v>3.531179577061544</v>
+        <v>3.908799376978055</v>
       </c>
       <c r="E3">
-        <v>11.50139234053673</v>
+        <v>11.68535303170099</v>
       </c>
       <c r="F3">
-        <v>18.59416708697886</v>
+        <v>21.59894531517007</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.33178612667566</v>
+        <v>13.95445261415489</v>
       </c>
       <c r="N3">
-        <v>11.17931123627022</v>
+        <v>16.61195351724882</v>
       </c>
       <c r="O3">
-        <v>14.4247452406479</v>
+        <v>19.17683231908321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.21631318013155</v>
+        <v>10.86815566977344</v>
       </c>
       <c r="C4">
-        <v>11.81750081042721</v>
+        <v>7.716795311432813</v>
       </c>
       <c r="D4">
-        <v>3.465174238729959</v>
+        <v>3.886432356697452</v>
       </c>
       <c r="E4">
-        <v>11.09031883420791</v>
+        <v>11.61800286406398</v>
       </c>
       <c r="F4">
-        <v>18.09214526325823</v>
+        <v>21.55145764633494</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.59541307425679</v>
+        <v>13.78690265557993</v>
       </c>
       <c r="N4">
-        <v>11.29961595408753</v>
+        <v>16.64987138642309</v>
       </c>
       <c r="O4">
-        <v>14.17785588840005</v>
+        <v>19.18361076711285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.87135084207546</v>
+        <v>10.71978362971639</v>
       </c>
       <c r="C5">
-        <v>11.62062488584389</v>
+        <v>7.618019270520094</v>
       </c>
       <c r="D5">
-        <v>3.437814569608504</v>
+        <v>3.877214260738068</v>
       </c>
       <c r="E5">
-        <v>10.92173185320631</v>
+        <v>11.59157444985732</v>
       </c>
       <c r="F5">
-        <v>17.88862728447344</v>
+        <v>21.53399755154097</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.2858887673522</v>
+        <v>13.7188835448241</v>
       </c>
       <c r="N5">
-        <v>11.34943812376968</v>
+        <v>16.66578571420689</v>
       </c>
       <c r="O5">
-        <v>14.08013867598461</v>
+        <v>19.18786801577232</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.81339023659372</v>
+        <v>10.69496330934202</v>
       </c>
       <c r="C6">
-        <v>11.58759935455863</v>
+        <v>7.601467156894174</v>
       </c>
       <c r="D6">
-        <v>3.433244397390909</v>
+        <v>3.875677487036041</v>
       </c>
       <c r="E6">
-        <v>10.89367988564121</v>
+        <v>11.58724828360266</v>
       </c>
       <c r="F6">
-        <v>17.85490649501615</v>
+        <v>21.53121293854106</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.23392091228885</v>
+        <v>13.70760751819025</v>
       </c>
       <c r="N6">
-        <v>11.35775951411244</v>
+        <v>16.66845624462312</v>
       </c>
       <c r="O6">
-        <v>14.06408929568655</v>
+        <v>19.18866512065584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.21170645272949</v>
+        <v>10.86616709788746</v>
       </c>
       <c r="C7">
-        <v>11.81486815111659</v>
+        <v>7.715473326262671</v>
       </c>
       <c r="D7">
-        <v>3.464807092140581</v>
+        <v>3.886308451010485</v>
       </c>
       <c r="E7">
-        <v>11.0880492617232</v>
+        <v>11.61764228522587</v>
       </c>
       <c r="F7">
-        <v>18.08939584448502</v>
+        <v>21.55121449715303</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.59127701854848</v>
+        <v>13.7859841487943</v>
       </c>
       <c r="N7">
-        <v>11.30028463177115</v>
+        <v>16.65008413844098</v>
       </c>
       <c r="O7">
-        <v>14.17652624627198</v>
+        <v>19.18366213319534</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.87084024665736</v>
+        <v>11.5935899825638</v>
       </c>
       <c r="C8">
-        <v>12.76858473967456</v>
+        <v>8.196096751481416</v>
       </c>
       <c r="D8">
-        <v>3.59996255049979</v>
+        <v>3.932301681410808</v>
       </c>
       <c r="E8">
-        <v>11.93582253495742</v>
+        <v>11.76061748278038</v>
       </c>
       <c r="F8">
-        <v>19.13264815055185</v>
+        <v>21.6560432843785</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.08539640378901</v>
+        <v>14.13385486837898</v>
       </c>
       <c r="N8">
-        <v>11.05362899146696</v>
+        <v>16.57306912862203</v>
       </c>
       <c r="O8">
-        <v>14.69789728786443</v>
+        <v>19.17471718070557</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.77356481676528</v>
+        <v>12.90794741251493</v>
       </c>
       <c r="C9">
-        <v>14.45847393045437</v>
+        <v>9.053186629045424</v>
       </c>
       <c r="D9">
-        <v>3.848633455088588</v>
+        <v>4.018912906889112</v>
       </c>
       <c r="E9">
-        <v>13.55181444959503</v>
+        <v>12.07075770053318</v>
       </c>
       <c r="F9">
-        <v>21.19105877018094</v>
+        <v>21.92001595147825</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.72132455153521</v>
+        <v>14.81694917484901</v>
       </c>
       <c r="N9">
-        <v>10.59428147331725</v>
+        <v>16.43654429983514</v>
       </c>
       <c r="O9">
-        <v>15.80624245036967</v>
+        <v>19.20450340591557</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.69619265306613</v>
+        <v>13.79749841492937</v>
       </c>
       <c r="C10">
-        <v>15.58854434018486</v>
+        <v>9.627619568836602</v>
       </c>
       <c r="D10">
-        <v>4.020177662733952</v>
+        <v>4.080121807558134</v>
       </c>
       <c r="E10">
-        <v>14.85142245222019</v>
+        <v>12.31473336545947</v>
       </c>
       <c r="F10">
-        <v>22.69828306517493</v>
+        <v>22.14827884225035</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.48314955034578</v>
+        <v>15.31395588563286</v>
       </c>
       <c r="N10">
-        <v>10.27102822591359</v>
+        <v>16.34500352820977</v>
       </c>
       <c r="O10">
-        <v>16.66874288144032</v>
+        <v>19.25526019056306</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.52621310255531</v>
+        <v>14.18442696672209</v>
       </c>
       <c r="C11">
-        <v>16.07839704946267</v>
+        <v>9.876441002296151</v>
       </c>
       <c r="D11">
-        <v>4.095589557009572</v>
+        <v>4.107391319341943</v>
       </c>
       <c r="E11">
-        <v>15.45410190756733</v>
+        <v>12.42875875494141</v>
       </c>
       <c r="F11">
-        <v>23.38092915553776</v>
+        <v>22.25924311960859</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.24786542734902</v>
+        <v>15.53791975109943</v>
       </c>
       <c r="N11">
-        <v>10.12694946213704</v>
+        <v>16.30524626829387</v>
       </c>
       <c r="O11">
-        <v>17.0708056805661</v>
+        <v>19.28459914942795</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.83419381066906</v>
+        <v>14.32831695990071</v>
       </c>
       <c r="C12">
-        <v>16.26041950563009</v>
+        <v>9.9688344007156</v>
       </c>
       <c r="D12">
-        <v>4.123754112185061</v>
+        <v>4.117630846579344</v>
       </c>
       <c r="E12">
-        <v>15.67938914306633</v>
+        <v>12.47233385142225</v>
       </c>
       <c r="F12">
-        <v>23.63888951565455</v>
+        <v>22.30225552077454</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.5322671263723</v>
+        <v>15.62233863622219</v>
       </c>
       <c r="N12">
-        <v>10.07281100551714</v>
+        <v>16.29046114303005</v>
       </c>
       <c r="O12">
-        <v>17.22440050639356</v>
+        <v>19.29660382663606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.76814480516166</v>
+        <v>14.29744585841646</v>
       </c>
       <c r="C13">
-        <v>16.22137197494017</v>
+        <v>9.949017686367748</v>
       </c>
       <c r="D13">
-        <v>4.117706035897326</v>
+        <v>4.115429509389172</v>
       </c>
       <c r="E13">
-        <v>15.63099791743872</v>
+        <v>12.46293221333019</v>
       </c>
       <c r="F13">
-        <v>23.5833586433748</v>
+        <v>22.29294841803572</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.47124471958386</v>
+        <v>15.60417623693131</v>
       </c>
       <c r="N13">
-        <v>10.08445204318337</v>
+        <v>16.29363338762601</v>
       </c>
       <c r="O13">
-        <v>17.19126210498924</v>
+        <v>19.29397869214981</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.55167722965753</v>
+        <v>14.19631803800133</v>
       </c>
       <c r="C14">
-        <v>16.09344168571324</v>
+        <v>9.884079107880453</v>
       </c>
       <c r="D14">
-        <v>4.097914612704806</v>
+        <v>4.108235495598915</v>
       </c>
       <c r="E14">
-        <v>15.4726944841819</v>
+        <v>12.43233600130041</v>
       </c>
       <c r="F14">
-        <v>23.40216309054047</v>
+        <v>22.26276207378093</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.27136649723204</v>
+        <v>15.54487326041681</v>
       </c>
       <c r="N14">
-        <v>10.12248704914884</v>
+        <v>16.30402447978973</v>
       </c>
       <c r="O14">
-        <v>17.08341537062633</v>
+        <v>19.28556887881007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.41826278522042</v>
+        <v>14.13402945837208</v>
       </c>
       <c r="C15">
-        <v>16.01462869536302</v>
+        <v>9.844063152630817</v>
       </c>
       <c r="D15">
-        <v>4.085740296413784</v>
+        <v>4.103817521773703</v>
       </c>
       <c r="E15">
-        <v>15.37535077566852</v>
+        <v>12.41364530427746</v>
       </c>
       <c r="F15">
-        <v>23.29110223479483</v>
+        <v>22.24440034516854</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.14826405803472</v>
+        <v>15.50849504872006</v>
       </c>
       <c r="N15">
-        <v>10.14583926914756</v>
+        <v>16.31042446803569</v>
       </c>
       <c r="O15">
-        <v>17.01752960788588</v>
+        <v>19.28053399446596</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.64105844224058</v>
+        <v>13.77184759915857</v>
       </c>
       <c r="C16">
-        <v>15.55604443484736</v>
+        <v>9.611104132074489</v>
       </c>
       <c r="D16">
-        <v>4.015195190550582</v>
+        <v>4.078327754471063</v>
       </c>
       <c r="E16">
-        <v>14.81161836599881</v>
+        <v>12.30733921804147</v>
       </c>
       <c r="F16">
-        <v>22.65359975682053</v>
+        <v>22.14116777241279</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.43244282777025</v>
+        <v>15.29926910453794</v>
       </c>
       <c r="N16">
-        <v>10.28050332633104</v>
+        <v>16.34763960658745</v>
       </c>
       <c r="O16">
-        <v>16.64265756853715</v>
+        <v>19.25346826139271</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.15290411142095</v>
+        <v>13.54505633832474</v>
       </c>
       <c r="C17">
-        <v>15.26851707108957</v>
+        <v>9.464966124799307</v>
       </c>
       <c r="D17">
-        <v>3.971234664195763</v>
+        <v>4.062540385874831</v>
       </c>
       <c r="E17">
-        <v>14.46042610967151</v>
+        <v>12.24287348476386</v>
       </c>
       <c r="F17">
-        <v>22.2616527778615</v>
+        <v>22.07964104083311</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.98396902504115</v>
+        <v>15.17030869359965</v>
       </c>
       <c r="N17">
-        <v>10.36387134070667</v>
+        <v>16.37095199654325</v>
       </c>
       <c r="O17">
-        <v>16.41512950994376</v>
+        <v>19.23846249190675</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.86792806894696</v>
+        <v>13.41294679643635</v>
       </c>
       <c r="C18">
-        <v>15.10085781813535</v>
+        <v>9.379737287584121</v>
       </c>
       <c r="D18">
-        <v>3.945703475402831</v>
+        <v>4.053406058119783</v>
       </c>
       <c r="E18">
-        <v>14.25642173672458</v>
+        <v>12.20608310727699</v>
       </c>
       <c r="F18">
-        <v>22.03593726733563</v>
+        <v>22.04492533293594</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.72255305043307</v>
+        <v>15.09593870589636</v>
       </c>
       <c r="N18">
-        <v>10.4121023145904</v>
+        <v>16.38453815840131</v>
       </c>
       <c r="O18">
-        <v>16.28517749228711</v>
+        <v>19.23042011826202</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.77071587409147</v>
+        <v>13.36793349707947</v>
       </c>
       <c r="C19">
-        <v>15.04369938880806</v>
+        <v>9.350679739335956</v>
       </c>
       <c r="D19">
-        <v>3.937017244067044</v>
+        <v>4.050304212440578</v>
       </c>
       <c r="E19">
-        <v>14.18700110249113</v>
+        <v>12.19367732295297</v>
       </c>
       <c r="F19">
-        <v>21.95947018305905</v>
+        <v>22.03328769283274</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.63344383636142</v>
+        <v>15.07072743199312</v>
       </c>
       <c r="N19">
-        <v>10.42848078124277</v>
+        <v>16.38916871425651</v>
       </c>
       <c r="O19">
-        <v>16.24133717074297</v>
+        <v>19.22779829391802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.20530334807792</v>
+        <v>13.56937163383238</v>
       </c>
       <c r="C20">
-        <v>15.29936090458351</v>
+        <v>9.480644545601823</v>
       </c>
       <c r="D20">
-        <v>3.975939937883428</v>
+        <v>4.064226582327325</v>
       </c>
       <c r="E20">
-        <v>14.4980181114423</v>
+        <v>12.24970639696943</v>
       </c>
       <c r="F20">
-        <v>22.30340590730925</v>
+        <v>22.08612125535524</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.0320677893112</v>
+        <v>15.18405760373361</v>
       </c>
       <c r="N20">
-        <v>10.35496775504248</v>
+        <v>16.3684519903201</v>
       </c>
       <c r="O20">
-        <v>16.43925587962889</v>
+        <v>19.23999899416583</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.61543011110465</v>
+        <v>14.22609372670881</v>
       </c>
       <c r="C21">
-        <v>16.13111207772234</v>
+        <v>9.903203043570166</v>
       </c>
       <c r="D21">
-        <v>4.103738589577843</v>
+        <v>4.110350941734878</v>
       </c>
       <c r="E21">
-        <v>15.51927063548535</v>
+        <v>12.44131242794269</v>
       </c>
       <c r="F21">
-        <v>23.45540004657392</v>
+        <v>22.27160186204868</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.33021526409719</v>
+        <v>15.56230326213483</v>
       </c>
       <c r="N21">
-        <v>10.11130385891268</v>
+        <v>16.3009650418359</v>
       </c>
       <c r="O21">
-        <v>17.11505649300567</v>
+        <v>19.28801480254889</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.50017601401003</v>
+        <v>14.63993320616977</v>
       </c>
       <c r="C22">
-        <v>16.65447084386822</v>
+        <v>10.16869196476074</v>
       </c>
       <c r="D22">
-        <v>4.184970212272685</v>
+        <v>4.13998780514592</v>
       </c>
       <c r="E22">
-        <v>16.1696821227732</v>
+        <v>12.56882783048829</v>
       </c>
       <c r="F22">
-        <v>24.2051063608746</v>
+        <v>22.3985935762497</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.14849500810579</v>
+        <v>15.80719114238375</v>
       </c>
       <c r="N22">
-        <v>9.954508119547523</v>
+        <v>16.25843224671668</v>
       </c>
       <c r="O22">
-        <v>17.56454180434124</v>
+        <v>19.324607862427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.03131370595333</v>
+        <v>14.42048868112881</v>
       </c>
       <c r="C23">
-        <v>16.37699069967278</v>
+        <v>10.0279821343331</v>
       </c>
       <c r="D23">
-        <v>4.141829542255509</v>
+        <v>4.124217902045417</v>
       </c>
       <c r="E23">
-        <v>15.82405991465034</v>
+        <v>12.50057459984168</v>
       </c>
       <c r="F23">
-        <v>23.80529248572287</v>
+        <v>22.3302989878423</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.71448374927248</v>
+        <v>15.67672895778955</v>
       </c>
       <c r="N23">
-        <v>10.03797007260452</v>
+        <v>16.28098911523052</v>
       </c>
       <c r="O23">
-        <v>17.32394211388387</v>
+        <v>19.30460221587694</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.18162714512456</v>
+        <v>13.55838405297596</v>
       </c>
       <c r="C24">
-        <v>15.285423746253</v>
+        <v>9.473560104583816</v>
       </c>
       <c r="D24">
-        <v>3.973813485165346</v>
+        <v>4.063464433109481</v>
       </c>
       <c r="E24">
-        <v>14.48102931510704</v>
+        <v>12.24661638753293</v>
       </c>
       <c r="F24">
-        <v>22.28453049205169</v>
+        <v>22.0831895019352</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.01033350418222</v>
+        <v>15.17784242795896</v>
       </c>
       <c r="N24">
-        <v>10.3589921262395</v>
+        <v>16.36958167125512</v>
       </c>
       <c r="O24">
-        <v>16.42834567459667</v>
+        <v>19.2393025200329</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.02548538848524</v>
+        <v>12.56526752789005</v>
       </c>
       <c r="C25">
-        <v>14.02083857638149</v>
+        <v>8.830831317804964</v>
       </c>
       <c r="D25">
-        <v>3.783243427735555</v>
+        <v>3.995890858450329</v>
       </c>
       <c r="E25">
-        <v>13.12037671522982</v>
+        <v>11.98387268917402</v>
       </c>
       <c r="F25">
-        <v>20.63431432432347</v>
+        <v>21.84247297828361</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.03929312983314</v>
+        <v>14.63262776554357</v>
       </c>
       <c r="N25">
-        <v>10.71600703029744</v>
+        <v>16.47193339399939</v>
       </c>
       <c r="O25">
-        <v>15.49764834886593</v>
+        <v>19.19137171584725</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_174/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.78343898000433</v>
+        <v>19.29651187006566</v>
       </c>
       <c r="C2">
-        <v>8.320682808848231</v>
+        <v>13.01488297970923</v>
       </c>
       <c r="D2">
-        <v>3.944530293171242</v>
+        <v>3.635523872242354</v>
       </c>
       <c r="E2">
-        <v>11.80144205942174</v>
+        <v>12.16268669120988</v>
       </c>
       <c r="F2">
-        <v>21.68843984460198</v>
+        <v>19.41672645455177</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.2283810455674</v>
+        <v>17.47018742999554</v>
       </c>
       <c r="N2">
-        <v>16.55318618368922</v>
+        <v>10.98846938216703</v>
       </c>
       <c r="O2">
-        <v>19.17549271906794</v>
+        <v>14.84513713517422</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.22455376164821</v>
+        <v>18.03525142303746</v>
       </c>
       <c r="C3">
-        <v>7.952968402872831</v>
+        <v>12.28693256410592</v>
       </c>
       <c r="D3">
-        <v>3.908799376978055</v>
+        <v>3.53117957706158</v>
       </c>
       <c r="E3">
-        <v>11.68535303170099</v>
+        <v>11.50139234053674</v>
       </c>
       <c r="F3">
-        <v>21.59894531517007</v>
+        <v>18.59416708697894</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.95445261415489</v>
+        <v>16.33178612667566</v>
       </c>
       <c r="N3">
-        <v>16.61195351724882</v>
+        <v>11.17931123627024</v>
       </c>
       <c r="O3">
-        <v>19.17683231908321</v>
+        <v>14.424745240648</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86815566977344</v>
+        <v>17.21631318013149</v>
       </c>
       <c r="C4">
-        <v>7.716795311432813</v>
+        <v>11.81750081042737</v>
       </c>
       <c r="D4">
-        <v>3.886432356697452</v>
+        <v>3.465174238730061</v>
       </c>
       <c r="E4">
-        <v>11.61800286406398</v>
+        <v>11.09031883420792</v>
       </c>
       <c r="F4">
-        <v>21.55145764633494</v>
+        <v>18.09214526325825</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.78690265557993</v>
+        <v>15.59541307425679</v>
       </c>
       <c r="N4">
-        <v>16.64987138642309</v>
+        <v>11.29961595408752</v>
       </c>
       <c r="O4">
-        <v>19.18361076711285</v>
+        <v>14.17785588840008</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.71978362971639</v>
+        <v>16.87135084207543</v>
       </c>
       <c r="C5">
-        <v>7.618019270520094</v>
+        <v>11.6206248858439</v>
       </c>
       <c r="D5">
-        <v>3.877214260738068</v>
+        <v>3.437814569608686</v>
       </c>
       <c r="E5">
-        <v>11.59157444985732</v>
+        <v>10.92173185320628</v>
       </c>
       <c r="F5">
-        <v>21.53399755154097</v>
+        <v>17.88862728447335</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.7188835448241</v>
+        <v>15.28588876735224</v>
       </c>
       <c r="N5">
-        <v>16.66578571420689</v>
+        <v>11.34943812376961</v>
       </c>
       <c r="O5">
-        <v>19.18786801577232</v>
+        <v>14.08013867598454</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.69496330934202</v>
+        <v>16.8133902365937</v>
       </c>
       <c r="C6">
-        <v>7.601467156894174</v>
+        <v>11.58759935455854</v>
       </c>
       <c r="D6">
-        <v>3.875677487036041</v>
+        <v>3.433244397390914</v>
       </c>
       <c r="E6">
-        <v>11.58724828360266</v>
+        <v>10.89367988564124</v>
       </c>
       <c r="F6">
-        <v>21.53121293854106</v>
+        <v>17.85490649501628</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.70760751819025</v>
+        <v>15.2339209122888</v>
       </c>
       <c r="N6">
-        <v>16.66845624462312</v>
+        <v>11.35775951411243</v>
       </c>
       <c r="O6">
-        <v>19.18866512065584</v>
+        <v>14.06408929568664</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86616709788746</v>
+        <v>17.21170645272957</v>
       </c>
       <c r="C7">
-        <v>7.715473326262671</v>
+        <v>11.81486815111659</v>
       </c>
       <c r="D7">
-        <v>3.886308451010485</v>
+        <v>3.464807092140575</v>
       </c>
       <c r="E7">
-        <v>11.61764228522587</v>
+        <v>11.08804926172318</v>
       </c>
       <c r="F7">
-        <v>21.55121449715303</v>
+        <v>18.08939584448495</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.7859841487943</v>
+        <v>15.59127701854853</v>
       </c>
       <c r="N7">
-        <v>16.65008413844098</v>
+        <v>11.30028463177111</v>
       </c>
       <c r="O7">
-        <v>19.18366213319534</v>
+        <v>14.17652624627189</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.5935899825638</v>
+        <v>18.87084024665738</v>
       </c>
       <c r="C8">
-        <v>8.196096751481416</v>
+        <v>12.76858473967443</v>
       </c>
       <c r="D8">
-        <v>3.932301681410808</v>
+        <v>3.599962550499801</v>
       </c>
       <c r="E8">
-        <v>11.76061748278038</v>
+        <v>11.93582253495742</v>
       </c>
       <c r="F8">
-        <v>21.6560432843785</v>
+        <v>19.1326481505518</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.13385486837898</v>
+        <v>17.08539640378902</v>
       </c>
       <c r="N8">
-        <v>16.57306912862203</v>
+        <v>11.05362899146693</v>
       </c>
       <c r="O8">
-        <v>19.17471718070557</v>
+        <v>14.69789728786439</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.90794741251493</v>
+        <v>21.77356481676522</v>
       </c>
       <c r="C9">
-        <v>9.053186629045424</v>
+        <v>14.45847393045437</v>
       </c>
       <c r="D9">
-        <v>4.018912906889112</v>
+        <v>3.8486334550886</v>
       </c>
       <c r="E9">
-        <v>12.07075770053318</v>
+        <v>13.551814449595</v>
       </c>
       <c r="F9">
-        <v>21.92001595147825</v>
+        <v>21.19105877018094</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.81694917484901</v>
+        <v>19.72132455153518</v>
       </c>
       <c r="N9">
-        <v>16.43654429983514</v>
+        <v>10.59428147331725</v>
       </c>
       <c r="O9">
-        <v>19.20450340591557</v>
+        <v>15.8062424503697</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.79749841492937</v>
+        <v>23.69619265306609</v>
       </c>
       <c r="C10">
-        <v>9.627619568836602</v>
+        <v>15.58854434018475</v>
       </c>
       <c r="D10">
-        <v>4.080121807558134</v>
+        <v>4.020177662733992</v>
       </c>
       <c r="E10">
-        <v>12.31473336545947</v>
+        <v>14.85142245222021</v>
       </c>
       <c r="F10">
-        <v>22.14827884225035</v>
+        <v>22.69828306517491</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.31395588563286</v>
+        <v>21.48314955034576</v>
       </c>
       <c r="N10">
-        <v>16.34500352820977</v>
+        <v>10.27102822591357</v>
       </c>
       <c r="O10">
-        <v>19.25526019056306</v>
+        <v>16.66874288144032</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.18442696672209</v>
+        <v>24.52621310255527</v>
       </c>
       <c r="C11">
-        <v>9.876441002296151</v>
+        <v>16.07839704946273</v>
       </c>
       <c r="D11">
-        <v>4.107391319341943</v>
+        <v>4.095589557009457</v>
       </c>
       <c r="E11">
-        <v>12.42875875494141</v>
+        <v>15.4541019075673</v>
       </c>
       <c r="F11">
-        <v>22.25924311960859</v>
+        <v>23.38092915553774</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.53791975109943</v>
+        <v>22.24786542734899</v>
       </c>
       <c r="N11">
-        <v>16.30524626829387</v>
+        <v>10.12694946213704</v>
       </c>
       <c r="O11">
-        <v>19.28459914942795</v>
+        <v>17.0708056805661</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.32831695990071</v>
+        <v>24.83419381066904</v>
       </c>
       <c r="C12">
-        <v>9.9688344007156</v>
+        <v>16.26041950563011</v>
       </c>
       <c r="D12">
-        <v>4.117630846579344</v>
+        <v>4.123754112185156</v>
       </c>
       <c r="E12">
-        <v>12.47233385142225</v>
+        <v>15.67938914306636</v>
       </c>
       <c r="F12">
-        <v>22.30225552077454</v>
+        <v>23.63888951565456</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.62233863622219</v>
+        <v>22.53226712637231</v>
       </c>
       <c r="N12">
-        <v>16.29046114303005</v>
+        <v>10.07281100551714</v>
       </c>
       <c r="O12">
-        <v>19.29660382663606</v>
+        <v>17.22440050639357</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.29744585841646</v>
+        <v>24.76814480516163</v>
       </c>
       <c r="C13">
-        <v>9.949017686367748</v>
+        <v>16.22137197494015</v>
       </c>
       <c r="D13">
-        <v>4.115429509389172</v>
+        <v>4.1177060358973</v>
       </c>
       <c r="E13">
-        <v>12.46293221333019</v>
+        <v>15.63099791743877</v>
       </c>
       <c r="F13">
-        <v>22.29294841803572</v>
+        <v>23.58335864337477</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.60417623693131</v>
+        <v>22.47124471958388</v>
       </c>
       <c r="N13">
-        <v>16.29363338762601</v>
+        <v>10.08445204318331</v>
       </c>
       <c r="O13">
-        <v>19.29397869214981</v>
+        <v>17.19126210498921</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.19631803800133</v>
+        <v>24.55167722965756</v>
       </c>
       <c r="C14">
-        <v>9.884079107880453</v>
+        <v>16.09344168571331</v>
       </c>
       <c r="D14">
-        <v>4.108235495598915</v>
+        <v>4.09791461270482</v>
       </c>
       <c r="E14">
-        <v>12.43233600130041</v>
+        <v>15.47269448418189</v>
       </c>
       <c r="F14">
-        <v>22.26276207378093</v>
+        <v>23.40216309054042</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.54487326041681</v>
+        <v>22.27136649723208</v>
       </c>
       <c r="N14">
-        <v>16.30402447978973</v>
+        <v>10.12248704914877</v>
       </c>
       <c r="O14">
-        <v>19.28556887881007</v>
+        <v>17.08341537062626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.13402945837208</v>
+        <v>24.41826278522038</v>
       </c>
       <c r="C15">
-        <v>9.844063152630817</v>
+        <v>16.014628695363</v>
       </c>
       <c r="D15">
-        <v>4.103817521773703</v>
+        <v>4.08574029641372</v>
       </c>
       <c r="E15">
-        <v>12.41364530427746</v>
+        <v>15.37535077566851</v>
       </c>
       <c r="F15">
-        <v>22.24440034516854</v>
+        <v>23.29110223479482</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.50849504872006</v>
+        <v>22.14826405803468</v>
       </c>
       <c r="N15">
-        <v>16.31042446803569</v>
+        <v>10.1458392691476</v>
       </c>
       <c r="O15">
-        <v>19.28053399446596</v>
+        <v>17.01752960788589</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.77184759915857</v>
+        <v>23.64105844224056</v>
       </c>
       <c r="C16">
-        <v>9.611104132074489</v>
+        <v>15.55604443484747</v>
       </c>
       <c r="D16">
-        <v>4.078327754471063</v>
+        <v>4.015195190550537</v>
       </c>
       <c r="E16">
-        <v>12.30733921804147</v>
+        <v>14.81161836599885</v>
       </c>
       <c r="F16">
-        <v>22.14116777241279</v>
+        <v>22.65359975682053</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.29926910453794</v>
+        <v>21.43244282777029</v>
       </c>
       <c r="N16">
-        <v>16.34763960658745</v>
+        <v>10.28050332633094</v>
       </c>
       <c r="O16">
-        <v>19.25346826139271</v>
+        <v>16.64265756853711</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.54505633832474</v>
+        <v>23.15290411142101</v>
       </c>
       <c r="C17">
-        <v>9.464966124799307</v>
+        <v>15.26851707108949</v>
       </c>
       <c r="D17">
-        <v>4.062540385874831</v>
+        <v>3.971234664195705</v>
       </c>
       <c r="E17">
-        <v>12.24287348476386</v>
+        <v>14.46042610967151</v>
       </c>
       <c r="F17">
-        <v>22.07964104083311</v>
+        <v>22.26165277786155</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.17030869359965</v>
+        <v>20.98396902504116</v>
       </c>
       <c r="N17">
-        <v>16.37095199654325</v>
+        <v>10.36387134070659</v>
       </c>
       <c r="O17">
-        <v>19.23846249190675</v>
+        <v>16.41512950994378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.41294679643635</v>
+        <v>22.86792806894695</v>
       </c>
       <c r="C18">
-        <v>9.379737287584121</v>
+        <v>15.10085781813529</v>
       </c>
       <c r="D18">
-        <v>4.053406058119783</v>
+        <v>3.94570347540286</v>
       </c>
       <c r="E18">
-        <v>12.20608310727699</v>
+        <v>14.25642173672463</v>
       </c>
       <c r="F18">
-        <v>22.04492533293594</v>
+        <v>22.0359372673356</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.09593870589636</v>
+        <v>20.7225530504331</v>
       </c>
       <c r="N18">
-        <v>16.38453815840131</v>
+        <v>10.4121023145904</v>
       </c>
       <c r="O18">
-        <v>19.23042011826202</v>
+        <v>16.28517749228711</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.36793349707947</v>
+        <v>22.77071587409145</v>
       </c>
       <c r="C19">
-        <v>9.350679739335956</v>
+        <v>15.04369938880804</v>
       </c>
       <c r="D19">
-        <v>4.050304212440578</v>
+        <v>3.937017244067025</v>
       </c>
       <c r="E19">
-        <v>12.19367732295297</v>
+        <v>14.18700110249114</v>
       </c>
       <c r="F19">
-        <v>22.03328769283274</v>
+        <v>21.95947018305905</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.07072743199312</v>
+        <v>20.63344383636142</v>
       </c>
       <c r="N19">
-        <v>16.38916871425651</v>
+        <v>10.42848078124273</v>
       </c>
       <c r="O19">
-        <v>19.22779829391802</v>
+        <v>16.24133717074298</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.56937163383238</v>
+        <v>23.20530334807792</v>
       </c>
       <c r="C20">
-        <v>9.480644545601823</v>
+        <v>15.29936090458359</v>
       </c>
       <c r="D20">
-        <v>4.064226582327325</v>
+        <v>3.975939937883492</v>
       </c>
       <c r="E20">
-        <v>12.24970639696943</v>
+        <v>14.49801811144234</v>
       </c>
       <c r="F20">
-        <v>22.08612125535524</v>
+        <v>22.3034059073092</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.18405760373361</v>
+        <v>21.03206778931123</v>
       </c>
       <c r="N20">
-        <v>16.3684519903201</v>
+        <v>10.35496775504235</v>
       </c>
       <c r="O20">
-        <v>19.23999899416583</v>
+        <v>16.43925587962882</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.22609372670881</v>
+        <v>24.61543011110463</v>
       </c>
       <c r="C21">
-        <v>9.903203043570166</v>
+        <v>16.13111207772227</v>
       </c>
       <c r="D21">
-        <v>4.110350941734878</v>
+        <v>4.103738589577811</v>
       </c>
       <c r="E21">
-        <v>12.44131242794269</v>
+        <v>15.51927063548538</v>
       </c>
       <c r="F21">
-        <v>22.27160186204868</v>
+        <v>23.45540004657391</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.56230326213483</v>
+        <v>22.33021526409716</v>
       </c>
       <c r="N21">
-        <v>16.3009650418359</v>
+        <v>10.11130385891264</v>
       </c>
       <c r="O21">
-        <v>19.28801480254889</v>
+        <v>17.11505649300568</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.63993320616977</v>
+        <v>25.50017601401004</v>
       </c>
       <c r="C22">
-        <v>10.16869196476074</v>
+        <v>16.65447084386815</v>
       </c>
       <c r="D22">
-        <v>4.13998780514592</v>
+        <v>4.18497021227273</v>
       </c>
       <c r="E22">
-        <v>12.56882783048829</v>
+        <v>16.16968212277323</v>
       </c>
       <c r="F22">
-        <v>22.3985935762497</v>
+        <v>24.20510636087458</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.80719114238375</v>
+        <v>23.14849500810578</v>
       </c>
       <c r="N22">
-        <v>16.25843224671668</v>
+        <v>9.954508119547429</v>
       </c>
       <c r="O22">
-        <v>19.324607862427</v>
+        <v>17.56454180434123</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.42048868112881</v>
+        <v>25.03131370595333</v>
       </c>
       <c r="C23">
-        <v>10.0279821343331</v>
+        <v>16.3769906996727</v>
       </c>
       <c r="D23">
-        <v>4.124217902045417</v>
+        <v>4.141829542255395</v>
       </c>
       <c r="E23">
-        <v>12.50057459984168</v>
+        <v>15.82405991465029</v>
       </c>
       <c r="F23">
-        <v>22.3302989878423</v>
+        <v>23.80529248572285</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.67672895778955</v>
+        <v>22.71448374927242</v>
       </c>
       <c r="N23">
-        <v>16.28098911523052</v>
+        <v>10.03797007260455</v>
       </c>
       <c r="O23">
-        <v>19.30460221587694</v>
+        <v>17.32394211388387</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.55838405297596</v>
+        <v>23.18162714512443</v>
       </c>
       <c r="C24">
-        <v>9.473560104583816</v>
+        <v>15.28542374625278</v>
       </c>
       <c r="D24">
-        <v>4.063464433109481</v>
+        <v>3.973813485165387</v>
       </c>
       <c r="E24">
-        <v>12.24661638753293</v>
+        <v>14.48102931510699</v>
       </c>
       <c r="F24">
-        <v>22.0831895019352</v>
+        <v>22.28453049205177</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.17784242795896</v>
+        <v>21.01033350418211</v>
       </c>
       <c r="N24">
-        <v>16.36958167125512</v>
+        <v>10.35899212623953</v>
       </c>
       <c r="O24">
-        <v>19.2393025200329</v>
+        <v>16.42834567459676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.56526752789005</v>
+        <v>21.02548538848521</v>
       </c>
       <c r="C25">
-        <v>8.830831317804964</v>
+        <v>14.02083857638147</v>
       </c>
       <c r="D25">
-        <v>3.995890858450329</v>
+        <v>3.783243427735453</v>
       </c>
       <c r="E25">
-        <v>11.98387268917402</v>
+        <v>13.12037671522981</v>
       </c>
       <c r="F25">
-        <v>21.84247297828361</v>
+        <v>20.63431432432353</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.63262776554357</v>
+        <v>19.03929312983313</v>
       </c>
       <c r="N25">
-        <v>16.47193339399939</v>
+        <v>10.71600703029747</v>
       </c>
       <c r="O25">
-        <v>19.19137171584725</v>
+        <v>15.497648348866</v>
       </c>
     </row>
   </sheetData>
